--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MISSOURI_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MISSOURI_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D940"/>
+  <dimension ref="A1:D934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C25">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C29">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C48">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C55">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C86">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C105">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C106">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C112">
@@ -2055,7 +2055,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C128">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C146">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C172">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C175">
@@ -2850,12 +2850,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C188">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C192">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C195">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C202">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C207">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C210">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C219">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C223">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C229">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C237">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C243">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C244">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C245">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C256">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C263">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C266">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C276">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C278">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C283">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C286">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C304">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C308">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C311">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C317">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C337">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C345">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C352">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C357">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C359">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C368">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C371">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C378">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C382">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C384">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C388">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C391">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C401">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C405">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C408">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C416">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C419">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C421">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C423">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C427">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C431">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C435">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C437">
@@ -6988,7 +6988,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C504">
@@ -7318,7 +7318,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C529">
@@ -7370,7 +7370,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C533">
@@ -7466,7 +7466,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C540">
@@ -7640,7 +7640,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C553">
@@ -7692,7 +7692,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C557">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C563">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C570">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C575">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C578">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C582">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C587">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C631">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C638">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C645">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C653">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C658">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C664">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C677">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C682">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C684">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C686">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C700">
@@ -9592,7 +9592,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C702">
@@ -9631,7 +9631,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C705">
@@ -9644,7 +9644,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C706">
@@ -9683,7 +9683,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C709">
@@ -9771,7 +9771,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C715">
@@ -9797,7 +9797,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C717">
@@ -9888,7 +9888,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C724">
@@ -9927,7 +9927,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C727">
@@ -9953,7 +9953,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C729">
@@ -10031,7 +10031,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C735">
@@ -10044,7 +10044,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C736">
@@ -10057,7 +10057,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C737">
@@ -10275,7 +10275,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C753">
@@ -10436,7 +10436,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C765">
@@ -10714,7 +10714,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C786">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C793">
@@ -10836,7 +10836,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C795">
@@ -10862,7 +10862,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C797">
@@ -10901,7 +10901,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C800">
@@ -10953,7 +10953,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C804">
@@ -11005,7 +11005,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C808">
@@ -11218,7 +11218,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C824">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C833">
@@ -11348,7 +11348,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C834">
@@ -11439,7 +11439,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C841">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C842">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C843">
@@ -11491,7 +11491,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C845">
@@ -11595,7 +11595,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C853">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C855">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C857">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C864">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C867">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C868">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C870">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C875">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C876">
@@ -12050,7 +12050,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C888">
@@ -12255,7 +12255,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C903">
@@ -12281,7 +12281,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C905">
@@ -12359,7 +12359,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C911">
@@ -12437,7 +12437,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C917">
@@ -12541,7 +12541,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C925">
@@ -12554,7 +12554,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C926">
@@ -12580,7 +12580,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C928">
@@ -12666,41 +12666,6 @@
       </c>
       <c r="D934">
         <v>1</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
